--- a/main_board/bom/main_board.xlsx
+++ b/main_board/bom/main_board.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\bonkulator\main_board\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{86A35D7E-2146-44E1-9021-FB71F01C399D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACCFEF7-6864-42F4-8518-BA0ACA547C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main_board" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1444,11 +1444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/main_board/bom/main_board.xlsx
+++ b/main_board/bom/main_board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\bonkulator\main_board\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ACCFEF7-6864-42F4-8518-BA0ACA547C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0BD6929E-7C19-40F9-B1DB-D39B729A2C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="main_board" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="196">
   <si>
     <t>Reference</t>
   </si>
@@ -199,6 +199,9 @@
     <t>609-4938-ND</t>
   </si>
   <si>
+    <t>C492401</t>
+  </si>
+  <si>
     <t xml:space="preserve">J5 </t>
   </si>
   <si>
@@ -343,13 +346,13 @@
     <t xml:space="preserve">R93 R94 R95 R96 R121 R122 R123 R124 R139 R140 </t>
   </si>
   <si>
-    <t>56K</t>
+    <t>100K</t>
   </si>
   <si>
     <t>311-56KARCT-ND</t>
   </si>
   <si>
-    <t>C137420</t>
+    <t>C100049</t>
   </si>
   <si>
     <t xml:space="preserve">R141 </t>
@@ -610,7 +613,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1444,20 +1447,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" customWidth="1"/>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1718,395 +1721,398 @@
       <c r="E14" t="s">
         <v>58</v>
       </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B22">
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B27">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B29">
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B30">
         <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E31" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F31" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B32">
         <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F32" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B34">
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D34" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -2115,277 +2121,277 @@
         <v>300</v>
       </c>
       <c r="D35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B37">
         <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B38">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B39">
         <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D41" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D42" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E42" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B44">
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E44" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F45" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E46" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F46" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F47" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E48" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/main_board/bom/main_board.xlsx
+++ b/main_board/bom/main_board.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\bonkulator\main_board\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0BD6929E-7C19-40F9-B1DB-D39B729A2C41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D1DE353-5609-49C0-82CB-8902FB4BA9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
   <si>
     <t>Reference</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve"> Value</t>
   </si>
   <si>
-    <t xml:space="preserve"> Footprint</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Digi-Key Part</t>
   </si>
   <si>
@@ -46,9 +43,6 @@
     <t>Arduino_Nano_RP2040_Connect</t>
   </si>
   <si>
-    <t>Module:Arduino_Nano</t>
-  </si>
-  <si>
     <t>1050-ABX00053-ND</t>
   </si>
   <si>
@@ -58,13 +52,10 @@
     <t>100uF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:CP_Elec_6.3x5.4_Nichicon</t>
-  </si>
-  <si>
     <t>399-EDH107M016A9GAACT-ND</t>
   </si>
   <si>
-    <t>C2887276</t>
+    <t>C2887272</t>
   </si>
   <si>
     <t xml:space="preserve">C11 C12 C13 C26 </t>
@@ -73,13 +64,10 @@
     <t>10nF</t>
   </si>
   <si>
-    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
-  </si>
-  <si>
     <t>311-1136-1-ND</t>
   </si>
   <si>
-    <t>C83170</t>
+    <t>C1710</t>
   </si>
   <si>
     <t xml:space="preserve">C3 C4 C5 C6 C8 C9 C14 C15 C16 C17 C18 C19 C20 C21 C22 C24 C25 C27 C28 C30 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 </t>
@@ -94,7 +82,7 @@
     <t>C49678</t>
   </si>
   <si>
-    <t xml:space="preserve">C7 C10 C31 C43 </t>
+    <t xml:space="preserve">C31 </t>
   </si>
   <si>
     <t>330nF</t>
@@ -103,22 +91,28 @@
     <t>311-1888-1-ND</t>
   </si>
   <si>
-    <t>C107132</t>
+    <t>C1740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7 C10 C43 </t>
+  </si>
+  <si>
+    <t>1uF</t>
+  </si>
+  <si>
+    <t>C28323</t>
   </si>
   <si>
     <t xml:space="preserve">D1 D2 D3 D4 D5 D6 D7 D8 D13 D14 D15 D16 D17 D18 </t>
   </si>
   <si>
-    <t>BAT46</t>
-  </si>
-  <si>
-    <t>Diode_SMD:D_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+    <t>1N5819</t>
   </si>
   <si>
     <t>478-7800-1-ND</t>
   </si>
   <si>
-    <t>C123899</t>
+    <t>C191023</t>
   </si>
   <si>
     <t xml:space="preserve">D10 </t>
@@ -127,9 +121,6 @@
     <t>YELLOW LED</t>
   </si>
   <si>
-    <t>LED_THT:LED_D3.0mm</t>
-  </si>
-  <si>
     <t>160-1961-ND</t>
   </si>
   <si>
@@ -166,9 +157,6 @@
     <t>3.5mm Jack</t>
   </si>
   <si>
-    <t>sputterizer:Molex-0472570001</t>
-  </si>
-  <si>
     <t>WM17366-ND</t>
   </si>
   <si>
@@ -178,9 +166,6 @@
     <t>Conn_01x15_Female</t>
   </si>
   <si>
-    <t>sputterizer:ArduinoConnector</t>
-  </si>
-  <si>
     <t>S7048-ND</t>
   </si>
   <si>
@@ -193,9 +178,6 @@
     <t>Conn_01x02_Male</t>
   </si>
   <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>609-4938-ND</t>
   </si>
   <si>
@@ -208,9 +190,6 @@
     <t>Display Header</t>
   </si>
   <si>
-    <t>sputterizer:OLED_Header_Slim</t>
-  </si>
-  <si>
     <t>SAM1011-04-ND</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>EU Power</t>
   </si>
   <si>
-    <t>Connector_PinHeader_2.54mm:PinHeader_2x05_P2.54mm_Vertical</t>
-  </si>
-  <si>
     <t>S2011EC-05-ND</t>
   </si>
   <si>
@@ -250,25 +226,19 @@
     <t>MMBT3904</t>
   </si>
   <si>
-    <t>Package_TO_SOT_SMD:SOT-23</t>
-  </si>
-  <si>
     <t>C94514</t>
   </si>
   <si>
-    <t xml:space="preserve">R1 R2 R3 R4 R32 R37 R66 R67 R68 R81 R82 R83 R84 R109 R110 R111 R112 R125 R126 R127 R128 R133 R134 </t>
+    <t xml:space="preserve">R1 R2 R3 R4 R32 R37 R66 R67 R68 R125 R126 R127 R128 </t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
-  </si>
-  <si>
     <t>13-RC0805JR-1010KLCT-ND</t>
   </si>
   <si>
-    <t>C138260</t>
+    <t>C17414</t>
   </si>
   <si>
     <t xml:space="preserve">R10 </t>
@@ -280,7 +250,7 @@
     <t>311-68KARCT-ND</t>
   </si>
   <si>
-    <t>C137412</t>
+    <t>C17801</t>
   </si>
   <si>
     <t xml:space="preserve">R11 R12 R13 R14 R15 R16 R17 R18 R19 R40 R41 R42 R43 R44 R45 R46 R47 R142 R143 </t>
@@ -295,43 +265,70 @@
     <t>C122537</t>
   </si>
   <si>
-    <t xml:space="preserve">R73 R74 R75 R76 R101 R102 R103 R104 R129 R130 </t>
-  </si>
-  <si>
-    <t>750K</t>
-  </si>
-  <si>
-    <t>311-750KARCT-ND</t>
-  </si>
-  <si>
-    <t>C137408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R77 R78 R79 R80 R105 R106 R107 R108 R131 R132 </t>
-  </si>
-  <si>
-    <t>3.32M</t>
-  </si>
-  <si>
-    <t>311-3.32MCRCT-ND</t>
-  </si>
-  <si>
-    <t>C422748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R85 R86 R87 R88 R113 R114 R115 R116 R135 R136 </t>
-  </si>
-  <si>
-    <t>2.2K</t>
-  </si>
-  <si>
-    <t>311-2.2KARCT-ND</t>
-  </si>
-  <si>
-    <t>C26017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R89 R90 R91 R92 R117 R118 R119 R120 R137 R138 </t>
+    <t xml:space="preserve">R141 </t>
+  </si>
+  <si>
+    <t>20K</t>
+  </si>
+  <si>
+    <t>RMCF0805JT20K0CT-ND</t>
+  </si>
+  <si>
+    <t>C4328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R20 R21 R22 R23 R48 R49 R50 R51 R58 </t>
+  </si>
+  <si>
+    <t>43K</t>
+  </si>
+  <si>
+    <t>311-43KARCT-ND</t>
+  </si>
+  <si>
+    <t>C17695</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24 R25 R26 R27 R52 R53 R54 R55 </t>
+  </si>
+  <si>
+    <t>332K .1%</t>
+  </si>
+  <si>
+    <t>P332KDACT-ND</t>
+  </si>
+  <si>
+    <t>C228750</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R28 R33 </t>
+  </si>
+  <si>
+    <t>30.1K .1%</t>
+  </si>
+  <si>
+    <t>C374678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R29 R31 R34 R36 </t>
+  </si>
+  <si>
+    <t>10K .1%</t>
+  </si>
+  <si>
+    <t>C406725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R30 R35 </t>
+  </si>
+  <si>
+    <t>4.3K</t>
+  </si>
+  <si>
+    <t>C17667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R38 R39 R69 R70 R71 R72 R97 R98 R99 R100 </t>
   </si>
   <si>
     <t>1K</t>
@@ -340,100 +337,13 @@
     <t>311-10KARCT-ND</t>
   </si>
   <si>
-    <t>C100047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R93 R94 R95 R96 R121 R122 R123 R124 R139 R140 </t>
-  </si>
-  <si>
-    <t>100K</t>
-  </si>
-  <si>
-    <t>311-56KARCT-ND</t>
-  </si>
-  <si>
-    <t>C100049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R141 </t>
-  </si>
-  <si>
-    <t>20K</t>
-  </si>
-  <si>
-    <t>RMCF0805JT20K0CT-ND</t>
-  </si>
-  <si>
-    <t>C237133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R20 R21 R22 R23 R48 R49 R50 R51 </t>
-  </si>
-  <si>
-    <t>43K</t>
-  </si>
-  <si>
-    <t>311-43KARCT-ND</t>
-  </si>
-  <si>
-    <t>C137429</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24 R25 R26 R27 R52 R53 R54 R55 </t>
-  </si>
-  <si>
-    <t>332K .1%</t>
-  </si>
-  <si>
-    <t>P332KDACT-ND</t>
-  </si>
-  <si>
-    <t>C228750</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R28 R33 </t>
-  </si>
-  <si>
-    <t>30.1K .1%</t>
-  </si>
-  <si>
-    <t>C374678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R29 R31 R34 R36 </t>
-  </si>
-  <si>
-    <t>10K .1%</t>
-  </si>
-  <si>
-    <t>C406725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R30 R35 </t>
-  </si>
-  <si>
-    <t>4.3K</t>
-  </si>
-  <si>
-    <t>C229218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R38 R39 R69 R70 R71 R72 R97 R98 R99 R100 </t>
-  </si>
-  <si>
-    <t>1.00M</t>
-  </si>
-  <si>
-    <t>311-1.00MCRCT-ND</t>
-  </si>
-  <si>
-    <t>C107700</t>
+    <t>C17513</t>
   </si>
   <si>
     <t xml:space="preserve">R5 R6 R7 R8 </t>
   </si>
   <si>
-    <t>C134081</t>
+    <t>C17617</t>
   </si>
   <si>
     <t xml:space="preserve">R9 </t>
@@ -490,9 +400,6 @@
     <t>Push Button</t>
   </si>
   <si>
-    <t>Button_Switch_THT:SW_PUSH_6mm</t>
-  </si>
-  <si>
     <t>450-1643-ND</t>
   </si>
   <si>
@@ -502,9 +409,6 @@
     <t>Adj</t>
   </si>
   <si>
-    <t>digikey-footprints:Rotary_Encoder_Switched_PEC11R</t>
-  </si>
-  <si>
     <t>987-1187-ND</t>
   </si>
   <si>
@@ -514,9 +418,6 @@
     <t>TestPoint</t>
   </si>
   <si>
-    <t>TestPoint:TestPoint_Keystone_5005-5009_Compact</t>
-  </si>
-  <si>
     <t>36-5006-ND</t>
   </si>
   <si>
@@ -526,69 +427,57 @@
     <t>TL072CDR</t>
   </si>
   <si>
-    <t>Package_SO:SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.29x3mm</t>
-  </si>
-  <si>
     <t>296-47385-1-ND</t>
   </si>
   <si>
+    <t>C6961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U11 </t>
+  </si>
+  <si>
+    <t>ADS1015IDGS</t>
+  </si>
+  <si>
+    <t>C193969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U15 </t>
+  </si>
+  <si>
+    <t>LM4132xMF-3.3</t>
+  </si>
+  <si>
+    <t>296-LM4132CQ1MFT3.3CT-ND</t>
+  </si>
+  <si>
+    <t>C181258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U16 </t>
+  </si>
+  <si>
+    <t>MB85RC256</t>
+  </si>
+  <si>
+    <t>865-1261-1-ND</t>
+  </si>
+  <si>
+    <t>C47538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5 </t>
+  </si>
+  <si>
     <t>C67473</t>
   </si>
   <si>
-    <t xml:space="preserve">U11 </t>
-  </si>
-  <si>
-    <t>ADS1015IDGS</t>
-  </si>
-  <si>
-    <t>Package_SO:TSSOP-10_3x3mm_P0.5mm</t>
-  </si>
-  <si>
-    <t>C193969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U15 </t>
-  </si>
-  <si>
-    <t>LM4132xMF-3.3</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-23-5</t>
-  </si>
-  <si>
-    <t>296-LM4132CQ1MFT3.3CT-ND</t>
-  </si>
-  <si>
-    <t>C181258</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U16 </t>
-  </si>
-  <si>
-    <t>MB85RC256</t>
-  </si>
-  <si>
-    <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
-  </si>
-  <si>
-    <t>865-1261-1-ND</t>
-  </si>
-  <si>
-    <t>C47538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5 </t>
-  </si>
-  <si>
     <t xml:space="preserve">U6 </t>
   </si>
   <si>
     <t>AD5328</t>
   </si>
   <si>
-    <t>Package_SO:TSSOP-16_4.4x5mm_P0.65mm</t>
-  </si>
-  <si>
     <t>505-AD5328ARUZ-REEL7CT-ND</t>
   </si>
   <si>
@@ -599,9 +488,6 @@
   </si>
   <si>
     <t>L78L05_SOT89</t>
-  </si>
-  <si>
-    <t>Package_TO_SOT_SMD:SOT-89-3</t>
   </si>
   <si>
     <t>MC78L05ACHT1GOSCT-ND</t>
@@ -1448,22 +1334,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:N1048576"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1479,919 +1362,716 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>20</v>
       </c>
       <c r="B5">
         <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="B7">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="B12">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>50</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>60</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
         <v>70</v>
       </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="B18">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="E21" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>74</v>
       </c>
-      <c r="B19">
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" t="s">
-        <v>81</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C24" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="D24" t="s">
         <v>83</v>
       </c>
-      <c r="B21">
+      <c r="E24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>300</v>
+      </c>
+      <c r="D31" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26">
-        <v>10</v>
-      </c>
-      <c r="C26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D26" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>108</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C32" t="s">
         <v>109</v>
       </c>
-      <c r="F27" t="s">
+      <c r="D32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="E32" t="s">
         <v>111</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>112</v>
       </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
         <v>113</v>
       </c>
-      <c r="F28" t="s">
+      <c r="D33" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>115</v>
       </c>
-      <c r="B29">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="B34">
+        <v>24</v>
+      </c>
+      <c r="C34" t="s">
         <v>116</v>
       </c>
-      <c r="D29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D34" t="s">
         <v>117</v>
       </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30">
-        <v>8</v>
-      </c>
-      <c r="C30" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>126</v>
-      </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>127</v>
-      </c>
-      <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="F32" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>130</v>
-      </c>
-      <c r="D33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B34">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>133</v>
-      </c>
-      <c r="D34" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" t="s">
-        <v>134</v>
-      </c>
-      <c r="F34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>136</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-      <c r="C35">
-        <v>300</v>
+      <c r="C35" t="s">
+        <v>119</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>133</v>
+      </c>
+      <c r="B40">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" t="s">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
         <v>138</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E41" t="s">
         <v>139</v>
       </c>
-      <c r="D36" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>140</v>
-      </c>
-      <c r="F36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>145</v>
-      </c>
-      <c r="B38">
-        <v>24</v>
-      </c>
-      <c r="C38" t="s">
-        <v>146</v>
-      </c>
-      <c r="E38" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39">
-        <v>4</v>
-      </c>
-      <c r="C39" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>152</v>
-      </c>
-      <c r="E40" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>155</v>
-      </c>
-      <c r="D41" t="s">
-        <v>156</v>
-      </c>
-      <c r="E41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>158</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D42" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
-      </c>
-      <c r="F44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>173</v>
-      </c>
-      <c r="F45" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D46" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>178</v>
-      </c>
-      <c r="F46" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>180</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>181</v>
-      </c>
-      <c r="D47" t="s">
-        <v>182</v>
-      </c>
-      <c r="E47" t="s">
-        <v>183</v>
-      </c>
-      <c r="F47" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D48" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" t="s">
-        <v>169</v>
-      </c>
-      <c r="F48" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>186</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>187</v>
-      </c>
-      <c r="D49" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" t="s">
-        <v>189</v>
-      </c>
-      <c r="F49" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>191</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>192</v>
-      </c>
-      <c r="D50" t="s">
-        <v>193</v>
-      </c>
-      <c r="E50" t="s">
-        <v>194</v>
-      </c>
-      <c r="F50" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/main_board/bom/main_board.xlsx
+++ b/main_board/bom/main_board.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\bonkulator\main_board\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8D1DE353-5609-49C0-82CB-8902FB4BA9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{3CAE09C8-C692-4485-A6E3-475399A34832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="199">
   <si>
     <t>Reference</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve"> Value</t>
   </si>
   <si>
+    <t xml:space="preserve"> Footprint</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Digi-Key Part</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
     <t>Arduino_Nano_RP2040_Connect</t>
   </si>
   <si>
+    <t>Module:Arduino_Nano</t>
+  </si>
+  <si>
     <t>1050-ABX00053-ND</t>
   </si>
   <si>
@@ -52,25 +58,31 @@
     <t>100uF</t>
   </si>
   <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x5.4_Nichicon</t>
+  </si>
+  <si>
     <t>399-EDH107M016A9GAACT-ND</t>
   </si>
   <si>
     <t>C2887272</t>
   </si>
   <si>
-    <t xml:space="preserve">C11 C12 C13 C26 </t>
+    <t xml:space="preserve">C11 C12 C13 C26 C44 C45 C46 C47 C48 C49 C50 C51 </t>
   </si>
   <si>
     <t>10nF</t>
   </si>
   <si>
+    <t>Capacitor_SMD:C_0805_2012Metric_Pad1.18x1.45mm_HandSolder</t>
+  </si>
+  <si>
     <t>311-1136-1-ND</t>
   </si>
   <si>
     <t>C1710</t>
   </si>
   <si>
-    <t xml:space="preserve">C3 C4 C5 C6 C8 C9 C14 C15 C16 C17 C18 C19 C20 C21 C22 C24 C25 C27 C28 C30 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 </t>
+    <t xml:space="preserve">C3 C4 C5 C6 C8 C9 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C27 C28 C29 C30 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 </t>
   </si>
   <si>
     <t>100nF</t>
@@ -103,12 +115,15 @@
     <t>C28323</t>
   </si>
   <si>
-    <t xml:space="preserve">D1 D2 D3 D4 D5 D6 D7 D8 D13 D14 D15 D16 D17 D18 </t>
+    <t xml:space="preserve">D1 D2 D3 D4 D5 D6 D7 D8 D13 D14 D15 D16 D17 D18 D39 D40 D41 D42 </t>
   </si>
   <si>
     <t>1N5819</t>
   </si>
   <si>
+    <t>Diode_SMD:D_0805_2012Metric_Pad1.15x1.40mm_HandSolder</t>
+  </si>
+  <si>
     <t>478-7800-1-ND</t>
   </si>
   <si>
@@ -121,6 +136,9 @@
     <t>YELLOW LED</t>
   </si>
   <si>
+    <t>LED_THT:LED_D3.0mm</t>
+  </si>
+  <si>
     <t>160-1961-ND</t>
   </si>
   <si>
@@ -142,6 +160,18 @@
     <t>732-5008-ND</t>
   </si>
   <si>
+    <t xml:space="preserve">D43 D44 </t>
+  </si>
+  <si>
+    <t>7.5V</t>
+  </si>
+  <si>
+    <t>Diode_SMD:D_SOD-123</t>
+  </si>
+  <si>
+    <t>C545306</t>
+  </si>
+  <si>
     <t xml:space="preserve">D9 D19 D20 D21 D22 D23 D24 D29 D30 D31 D32 </t>
   </si>
   <si>
@@ -157,6 +187,9 @@
     <t>3.5mm Jack</t>
   </si>
   <si>
+    <t>sputterizer:Molex-0472570001</t>
+  </si>
+  <si>
     <t>WM17366-ND</t>
   </si>
   <si>
@@ -166,6 +199,9 @@
     <t>Conn_01x15_Female</t>
   </si>
   <si>
+    <t>sputterizer:ArduinoConnector</t>
+  </si>
+  <si>
     <t>S7048-ND</t>
   </si>
   <si>
@@ -178,6 +214,9 @@
     <t>Conn_01x02_Male</t>
   </si>
   <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t>609-4938-ND</t>
   </si>
   <si>
@@ -190,6 +229,9 @@
     <t>Display Header</t>
   </si>
   <si>
+    <t>sputterizer:OLED_Header_Slim</t>
+  </si>
+  <si>
     <t>SAM1011-04-ND</t>
   </si>
   <si>
@@ -199,6 +241,9 @@
     <t>EU Power</t>
   </si>
   <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_2x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
     <t>S2011EC-05-ND</t>
   </si>
   <si>
@@ -226,15 +271,21 @@
     <t>MMBT3904</t>
   </si>
   <si>
+    <t>Package_TO_SOT_SMD:SOT-23</t>
+  </si>
+  <si>
     <t>C94514</t>
   </si>
   <si>
-    <t xml:space="preserve">R1 R2 R3 R4 R32 R37 R66 R67 R68 R125 R126 R127 R128 </t>
+    <t xml:space="preserve">R1 R2 R3 R4 R32 R37 R56 R57 R66 R67 R68 R125 R126 R127 R128 </t>
   </si>
   <si>
     <t>10K</t>
   </si>
   <si>
+    <t>Resistor_SMD:R_0805_2012Metric_Pad1.20x1.40mm_HandSolder</t>
+  </si>
+  <si>
     <t>13-RC0805JR-1010KLCT-ND</t>
   </si>
   <si>
@@ -253,7 +304,7 @@
     <t>C17801</t>
   </si>
   <si>
-    <t xml:space="preserve">R11 R12 R13 R14 R15 R16 R17 R18 R19 R40 R41 R42 R43 R44 R45 R46 R47 R142 R143 </t>
+    <t xml:space="preserve">R11 R12 R13 R14 R15 R16 R17 R18 R19 R40 R41 R42 R43 R44 R45 R46 R47 R61 R62 R63 R64 R65 R73 R74 R75 R142 R143 </t>
   </si>
   <si>
     <t>100K .1%</t>
@@ -346,6 +397,12 @@
     <t>C17617</t>
   </si>
   <si>
+    <t xml:space="preserve">R59 R60 </t>
+  </si>
+  <si>
+    <t>C17798</t>
+  </si>
+  <si>
     <t xml:space="preserve">R9 </t>
   </si>
   <si>
@@ -400,6 +457,9 @@
     <t>Push Button</t>
   </si>
   <si>
+    <t>Button_Switch_THT:SW_PUSH_6mm</t>
+  </si>
+  <si>
     <t>450-1643-ND</t>
   </si>
   <si>
@@ -409,24 +469,48 @@
     <t>Adj</t>
   </si>
   <si>
+    <t>digikey-footprints:Rotary_Encoder_Switched_PEC11R</t>
+  </si>
+  <si>
     <t>987-1187-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">TP1 TP2 TP3 </t>
+    <t xml:space="preserve">TP1 TP2 </t>
   </si>
   <si>
     <t>TestPoint</t>
   </si>
   <si>
+    <t>TestPoint:TestPoint_Keystone_5005-5009_Compact</t>
+  </si>
+  <si>
     <t>36-5006-ND</t>
   </si>
   <si>
-    <t xml:space="preserve">U1 U2 U4 U8 U9 U10 U12 U14 U17 U18 U19 </t>
+    <t>C2906764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP3 TP4 </t>
+  </si>
+  <si>
+    <t>TestPoint:TestPoint_Keystone_5000-5004_Miniature</t>
+  </si>
+  <si>
+    <t>36-5002-ND</t>
+  </si>
+  <si>
+    <t>C238123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1 U4 U9 U10 U12 U14 U17 U18 </t>
   </si>
   <si>
     <t>TL072CDR</t>
   </si>
   <si>
+    <t>Package_SO:SOIC-8-1EP_3.9x4.9mm_P1.27mm_EP2.29x3mm</t>
+  </si>
+  <si>
     <t>296-47385-1-ND</t>
   </si>
   <si>
@@ -439,15 +523,33 @@
     <t>ADS1015IDGS</t>
   </si>
   <si>
+    <t>Package_SO:TSSOP-10_3x3mm_P0.5mm</t>
+  </si>
+  <si>
     <t>C193969</t>
   </si>
   <si>
+    <t xml:space="preserve">U13 U24 </t>
+  </si>
+  <si>
+    <t>DG412xY</t>
+  </si>
+  <si>
+    <t>Package_SO:SOIC-16_3.9x9.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>C143730</t>
+  </si>
+  <si>
     <t xml:space="preserve">U15 </t>
   </si>
   <si>
     <t>LM4132xMF-3.3</t>
   </si>
   <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
     <t>296-LM4132CQ1MFT3.3CT-ND</t>
   </si>
   <si>
@@ -460,16 +562,31 @@
     <t>MB85RC256</t>
   </si>
   <si>
+    <t>Package_SO:SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
     <t>865-1261-1-ND</t>
   </si>
   <si>
     <t>C47538</t>
   </si>
   <si>
-    <t xml:space="preserve">U5 </t>
-  </si>
-  <si>
-    <t>C67473</t>
+    <t xml:space="preserve">U2 U5 U8 U19 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">U21 </t>
+  </si>
+  <si>
+    <t>MCP23008-xSS</t>
+  </si>
+  <si>
+    <t>Package_SO:SSOP-20_5.3x7.2mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>MCP23008-E/SS-ND</t>
+  </si>
+  <si>
+    <t>C148011</t>
   </si>
   <si>
     <t xml:space="preserve">U6 </t>
@@ -478,6 +595,9 @@
     <t>AD5328</t>
   </si>
   <si>
+    <t>Package_SO:TSSOP-16_4.4x5mm_P0.65mm</t>
+  </si>
+  <si>
     <t>505-AD5328ARUZ-REEL7CT-ND</t>
   </si>
   <si>
@@ -490,10 +610,13 @@
     <t>L78L05_SOT89</t>
   </si>
   <si>
+    <t>Package_TO_SOT_SMD:SOT-89-3</t>
+  </si>
+  <si>
     <t>MC78L05ACHT1GOSCT-ND</t>
   </si>
   <si>
-    <t>C90471</t>
+    <t>C71136</t>
   </si>
 </sst>
 </file>
@@ -1334,19 +1457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.42578125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1362,716 +1481,936 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14">
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20">
         <v>6</v>
       </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20">
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21">
-        <v>13</v>
-      </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
         <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>103</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27">
         <v>8</v>
       </c>
-      <c r="C26" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27">
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28">
+      <c r="C28" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" t="s">
+        <v>87</v>
+      </c>
+      <c r="E28" t="s">
+        <v>108</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29">
         <v>4</v>
       </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
         <v>87</v>
       </c>
-      <c r="E29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31">
         <v>10</v>
       </c>
-      <c r="C30" t="s">
-        <v>103</v>
-      </c>
-      <c r="D30" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>106</v>
-      </c>
-      <c r="B31">
+      <c r="C31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>300</v>
       </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B32">
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>680</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34">
-        <v>24</v>
-      </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="E34" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="B36">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37" t="s">
+        <v>138</v>
+      </c>
+      <c r="E37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38">
         <v>2</v>
       </c>
-      <c r="C36" t="s">
-        <v>122</v>
-      </c>
-      <c r="D36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>124</v>
-      </c>
-      <c r="B37">
+      <c r="C38" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39">
         <v>16</v>
       </c>
-      <c r="C37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38">
+      <c r="C39" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
-        <v>128</v>
-      </c>
-      <c r="D38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>130</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39" t="s">
-        <v>131</v>
-      </c>
-      <c r="D39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40">
-        <v>11</v>
-      </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D40" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="E40" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>152</v>
+      </c>
+      <c r="D41" t="s">
+        <v>153</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="F41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="E42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D43" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="E43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="F44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="D45" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="F45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
+        <v>176</v>
+      </c>
+      <c r="F46" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" t="s">
+        <v>180</v>
+      </c>
+      <c r="E47" t="s">
+        <v>181</v>
+      </c>
+      <c r="F47" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>180</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>185</v>
+      </c>
+      <c r="D49" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>190</v>
+      </c>
+      <c r="D50" t="s">
+        <v>191</v>
+      </c>
+      <c r="E50" t="s">
+        <v>192</v>
+      </c>
+      <c r="F50" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D51" t="s">
+        <v>196</v>
+      </c>
+      <c r="E51" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
